--- a/keys.xlsx
+++ b/keys.xlsx
@@ -1,151 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rohankatkam/Documents/Engineering College/NJIT/2nd Sem/IHLP/Project/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB1E986-A68A-B949-941D-B0D7B0087A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
-  <si>
-    <t>Date and Time</t>
-  </si>
-  <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>Original Text</t>
-  </si>
-  <si>
-    <t>Encrypted Text</t>
-  </si>
-  <si>
-    <t>2024-05-10 19:04:34</t>
-  </si>
-  <si>
-    <t>aK2AoK2/k2O2ZUyJOM+rQA==</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>9tHPWLQ=</t>
-  </si>
-  <si>
-    <t>2024-05-10 19:05:51</t>
-  </si>
-  <si>
-    <t>DzE63oKKlM/yzmsTO6g/fA==</t>
-  </si>
-  <si>
-    <t>Today we are making pani puri</t>
-  </si>
-  <si>
-    <t>+vDkjqZfgyxgG0Z386XBBiw86BqPWxcp9L5hFmg=</t>
-  </si>
-  <si>
-    <t>2024-05-10 19:10:24</t>
-  </si>
-  <si>
-    <t>DhwrlpXJvN7cKqKjkiZ/hQ==</t>
-  </si>
-  <si>
-    <t>ItKZbto=</t>
-  </si>
-  <si>
-    <t>2024-05-10 19:53:44</t>
-  </si>
-  <si>
-    <t>gMWy86hRoKN5x8Ngzz9pmCXXKwLZzxuaeC4BH+CnU68=</t>
-  </si>
-  <si>
-    <t>uHXtQtM=</t>
-  </si>
-  <si>
-    <t>2024-05-10 19:55:27</t>
-  </si>
-  <si>
-    <t>J9kb+xmI5aGg9m76ff8wKdkuUoZMR1yqpg3R9/NJdo0=</t>
-  </si>
-  <si>
-    <t>Cake or pie? I can tell a lot about you by which one you pick. It may seem silly, but cake people and pie people are really different. I know which one I hope you are, but that's not for me to decide. So, what is it? Cake or pie?</t>
-  </si>
-  <si>
-    <t>5Xi8j0cXPUiQBY/xnaY7XUcJi2A89YRed3l4SUU2Z0X43YCzb4QiFKTfl85gMqbJNFXxj0rDYwNLdCFAGAiu9JrGqXBT6nGqqeNl4fVmXm1veezfXxLtUeqvS97qm1siuiORvmStHch0IBPMhoEP5G7JolTpqomx8uYeS5J+3eSw7eQ2osQVkGoxOVI+m1O11PdJWb5smbbMnYHo611tj7LpKUpGFCa3tNyGnEuzJrIRwt1oE1xcSt+Vud+TC7yQKv5I4SwWQ6Vk+05vr5IHfEZ3vHaTB1T1dP1H3Rc8lQYRVUGgRA==</t>
-  </si>
-  <si>
-    <t>2024-05-10 19:55:57</t>
-  </si>
-  <si>
-    <t>upGhwVEXPw0ZUk+fHcsWxZLiAhS07wItLq9pscQdocA=</t>
-  </si>
-  <si>
-    <t>fCQkxxY5apvsoNVlkwc+nn2KLbqbyqXFW7jotvy7XVl5rNWhErhhma/e9ARRBtSUMOWsqKbRjrBit3nnajCfKS9jnKEOmExKDXRMw02b+1EuQhxVEAD3g9onvUnDkGCWv9AG6FGQlykIGQ5+K1ihzIRqg7L10uBXJvtScpK70cpJRs/frqhGUgzjDV8DkJ4eL1Fjzsb9WWZhX4kvaydQyyAPrSIQa+/zI5afOOk4hQuI0tyTsb0dDkUhVBtMT/p7aOvKXfZN4H5rGzsA3eikqR62QjbSuoQQiEZIvqTfX+kdpBlniA==</t>
-  </si>
-  <si>
-    <t>2024-05-10 19:56:11</t>
-  </si>
-  <si>
-    <t>RPi7T6JtcCeULIwpvS66CikAaGG9nvS+KIIwgdm7n6A=</t>
-  </si>
-  <si>
-    <t>4ySW3V8QTEsIeYR7bDU9I1x0M6AtXAbV5MAlgnk8XxDWsJvcoMi7vVL/iUJq+sNQX6lKwYzgcQK/io6zBOjl6qO2oqqEJn7/hxlcWCUDf5IUND5Ns7fTFV6hV1ODLlyrckxEtYyANhVXiaWr1l9GgoypfweI8k8KEBUGgO5uaLtz7TQV2cHNb4K9fbFroQDJMdjKROmA+lpe70AeqKohH+wACEhGE9Pooe/4MwR7m+MPtvkCHmBgCn0evx1POk37WHkp906xVC5U9kMwOA+4t2UzxY2UCNaZgNFD3MBi/mKZZr8euQ==</t>
-  </si>
-  <si>
-    <t>2024-05-10 23:38:02</t>
-  </si>
-  <si>
-    <t>LMQhGkXGRvm6ScJfuWczAnO4IhNLSValc5LIvTHcVfI=</t>
-  </si>
-  <si>
-    <t>PHfHgdw=</t>
-  </si>
-  <si>
-    <t>2024-05-10 23:38:36</t>
-  </si>
-  <si>
-    <t>XlD0Bazmy98XN59LnysMn0FExeOA6guSmMsC69j/5RE=</t>
-  </si>
-  <si>
-    <t>DOTUmJU=</t>
-  </si>
-  <si>
-    <t>2024-05-10 23:40:11</t>
-  </si>
-  <si>
-    <t>hg7NA2Q=</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -164,24 +46,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,174 +410,464 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col width="17.6640625" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
+    <col width="24.5" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
+    <col width="22.6640625" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
+    <col width="23.1640625" customWidth="1" style="1" min="4" max="4"/>
+    <col width="8.83203125" customWidth="1" style="1" min="5" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="224" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="224" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="224" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>35</v>
+    <row r="1" ht="16" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date and Time</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Key</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Original Text</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Encrypted Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="16" customHeight="1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-10 19:04:34</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>aK2AoK2/k2O2ZUyJOM+rQA==</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>9tHPWLQ=</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="32" customHeight="1">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-10 19:05:51</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>DzE63oKKlM/yzmsTO6g/fA==</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>Today we are making pani puri</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>+vDkjqZfgyxgG0Z386XBBiw86BqPWxcp9L5hFmg=</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="16" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-10 19:10:24</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>DhwrlpXJvN7cKqKjkiZ/hQ==</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>ItKZbto=</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="32" customHeight="1">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-10 19:53:44</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>gMWy86hRoKN5x8Ngzz9pmCXXKwLZzxuaeC4BH+CnU68=</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>uHXtQtM=</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="224" customHeight="1">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-10 19:55:27</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>J9kb+xmI5aGg9m76ff8wKdkuUoZMR1yqpg3R9/NJdo0=</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>Cake or pie? I can tell a lot about you by which one you pick. It may seem silly, but cake people and pie people are really different. I know which one I hope you are, but that's not for me to decide. So, what is it? Cake or pie?</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>5Xi8j0cXPUiQBY/xnaY7XUcJi2A89YRed3l4SUU2Z0X43YCzb4QiFKTfl85gMqbJNFXxj0rDYwNLdCFAGAiu9JrGqXBT6nGqqeNl4fVmXm1veezfXxLtUeqvS97qm1siuiORvmStHch0IBPMhoEP5G7JolTpqomx8uYeS5J+3eSw7eQ2osQVkGoxOVI+m1O11PdJWb5smbbMnYHo611tj7LpKUpGFCa3tNyGnEuzJrIRwt1oE1xcSt+Vud+TC7yQKv5I4SwWQ6Vk+05vr5IHfEZ3vHaTB1T1dP1H3Rc8lQYRVUGgRA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="224" customHeight="1">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-10 19:55:57</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>upGhwVEXPw0ZUk+fHcsWxZLiAhS07wItLq9pscQdocA=</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>Cake or pie? I can tell a lot about you by which one you pick. It may seem silly, but cake people and pie people are really different. I know which one I hope you are, but that's not for me to decide. So, what is it? Cake or pie?</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>fCQkxxY5apvsoNVlkwc+nn2KLbqbyqXFW7jotvy7XVl5rNWhErhhma/e9ARRBtSUMOWsqKbRjrBit3nnajCfKS9jnKEOmExKDXRMw02b+1EuQhxVEAD3g9onvUnDkGCWv9AG6FGQlykIGQ5+K1ihzIRqg7L10uBXJvtScpK70cpJRs/frqhGUgzjDV8DkJ4eL1Fjzsb9WWZhX4kvaydQyyAPrSIQa+/zI5afOOk4hQuI0tyTsb0dDkUhVBtMT/p7aOvKXfZN4H5rGzsA3eikqR62QjbSuoQQiEZIvqTfX+kdpBlniA==</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="224" customHeight="1">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-10 19:56:11</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>RPi7T6JtcCeULIwpvS66CikAaGG9nvS+KIIwgdm7n6A=</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>Cake or pie? I can tell a lot about you by which one you pick. It may seem silly, but cake people and pie people are really different. I know which one I hope you are, but that's not for me to decide. So, what is it? Cake or pie?</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>4ySW3V8QTEsIeYR7bDU9I1x0M6AtXAbV5MAlgnk8XxDWsJvcoMi7vVL/iUJq+sNQX6lKwYzgcQK/io6zBOjl6qO2oqqEJn7/hxlcWCUDf5IUND5Ns7fTFV6hV1ODLlyrckxEtYyANhVXiaWr1l9GgoypfweI8k8KEBUGgO5uaLtz7TQV2cHNb4K9fbFroQDJMdjKROmA+lpe70AeqKohH+wACEhGE9Pooe/4MwR7m+MPtvkCHmBgCn0evx1POk37WHkp906xVC5U9kMwOA+4t2UzxY2UCNaZgNFD3MBi/mKZZr8euQ==</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="32" customHeight="1">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-10 23:38:02</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>LMQhGkXGRvm6ScJfuWczAnO4IhNLSValc5LIvTHcVfI=</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>PHfHgdw=</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="32" customHeight="1">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-10 23:38:36</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>XlD0Bazmy98XN59LnysMn0FExeOA6guSmMsC69j/5RE=</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>DOTUmJU=</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="32" customHeight="1">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2024-05-10 23:40:11</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>XlD0Bazmy98XN59LnysMn0FExeOA6guSmMsC69j/5RE=</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>hg7NA2Q=</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-05-11 00:28:07</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>XlD0Bazmy98XN59LnysMn0FExeOA6guSmMsC69j/5RE=</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>rcTh1NQ=</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-05-11 00:30:32</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>uDoKAdqrsM+0B4I58fuEzXZ3sFJrUAHMe4qV3LoCuXs=</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Qs40WnU=</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-05-11 00:31:13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>qoeP1UFqal0jp6zpFPUKvGS+Ifa70bOJgBWSIeb5xCg=</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>c8lm0wo=</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-05-11 00:32:50</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>XlD0Bazmy98XN59LnysMn0FExeOA6guSmMsC69j/5RE=</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>This is a group project</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>EMQTUu9i6R8Y5LQhuoKgv3yp3voYy54=</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-05-11 00:35:15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>i7bxHA504JRu92dFGlaW6oNAYlgHuVIJFQPEXrGWqgM=</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Hi my name is Rohan and I am from group 6.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>WNrGJjO2u6DD240vg8X7uuK9SHvCnJOkQh0hzJ3bji9/V18/LsM8bx8u</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-05-11 00:38:14</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>qG+UCRiEKtUQMp9oTRGwF+iY4nYzjYlZBCp1fEKyGJs=</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi my name is Sathvika and I am studying IHLP. </t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6/gmNdl+1CcKTQ8cQgax2L97lqpvYwCnQIN8MnpLgYvqvC9jXuoHKyaGYDC1eVY=</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-05-11 22:14:32</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>bmWd6qhYQs2rtcYwX8xAAzukN3LsANRcKjySF0Gl43c=</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>lj68nU8=</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-05-11 22:23:58</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ju3BAoNiDoGk/thgieteEgM9oicT9ZCS0wfioWnJSo8=</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi my name is Rohan Katkam and I love computers. </t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>fRivU5GMrxKEejJ+RqgzcWEE33dDR3ooUb28SyHz5b1uiaWrGCtH9+Fy47YVnifrLg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-05-11 22:25:33</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ZFE6gShiDfCzuhMRD7LNBzE684y87naXJnGFH4/r7qQ=</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Hi my name is Sathvika Karri and I am doing my Masters.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>35Ej7S6fJuYFu653vtbgt2CYP5phyHoOl+wsRzehTrimuYlkassxijElkFpCrL7g0+YVY5l9kg==</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/keys.xlsx
+++ b/keys.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
@@ -870,6 +870,28 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-05-11 23:28:05</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>bmWd6qhYQs2rtcYwX8xAAzukN3LsANRcKjySF0Gl43c=</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Hia8Kz0=</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
